--- a/GLB_kor.xlsx
+++ b/GLB_kor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\sale_MB_kor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2292D025-7F31-4558-AD4A-52906277B2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFECAF6-9EFA-4BF9-950F-2FD441CFF989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7860" yWindow="2400" windowWidth="38595" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Общий" sheetId="1" r:id="rId1"/>
@@ -90,44 +90,12 @@
     <t>синий</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">однозонный климат с задними воздуховодами, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7 мест</t>
-    </r>
-  </si>
-  <si>
     <t>двузонный климат с задними воздуховодами, премиум музыка</t>
   </si>
   <si>
     <t>???</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">двузонный климат с задними воздуховодами, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7 мест</t>
-    </r>
-  </si>
-  <si>
     <t>серый</t>
   </si>
   <si>
@@ -143,22 +111,6 @@
     <t>продает оф. Дилер, скол на приборной панели</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">двузонный климат с задними воздуховодами, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7 мест???</t>
-    </r>
-  </si>
-  <si>
     <t>продает оф. Дилер</t>
   </si>
   <si>
@@ -262,6 +214,15 @@
   </si>
   <si>
     <t>легкий внешний тюнинг</t>
+  </si>
+  <si>
+    <t>однозонный климат с задними воздуховодами, 7 мест</t>
+  </si>
+  <si>
+    <t>двузонный климат с задними воздуховодами, 7 мест</t>
+  </si>
+  <si>
+    <t>двузонный климат с задними воздуховодами, 7 мест???</t>
   </si>
 </sst>
 </file>
@@ -271,20 +232,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -296,10 +249,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -362,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
@@ -389,55 +340,52 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -720,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,44 +688,44 @@
     <col min="14" max="14" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="N1" s="1"/>
@@ -786,17 +734,17 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
-        <v>250</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="16">
+        <v>250</v>
+      </c>
+      <c r="C2" s="17">
         <v>44256</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="18">
@@ -820,26 +768,26 @@
       <c r="L2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="15"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
-        <v>250</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="B3" s="16">
+        <v>250</v>
+      </c>
+      <c r="C3" s="17">
         <v>44228</v>
       </c>
       <c r="D3" s="20">
         <v>101897</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="18">
@@ -863,26 +811,26 @@
       <c r="L3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="15"/>
+      <c r="M3" s="16"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
-        <v>250</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="16">
+        <v>250</v>
+      </c>
+      <c r="C4" s="17">
         <v>44440</v>
       </c>
       <c r="D4" s="18">
         <v>152540</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="10">
         <v>2021</v>
       </c>
       <c r="F4" s="18">
@@ -900,14 +848,14 @@
       <c r="J4" s="19">
         <v>0</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="16" t="s">
         <v>16</v>
       </c>
       <c r="L4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="15" t="s">
-        <v>28</v>
+      <c r="M4" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -915,13 +863,13 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <v>35</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="17">
         <v>44531</v>
       </c>
       <c r="D5" s="18">
@@ -945,32 +893,32 @@
       <c r="J5" s="19">
         <v>0</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="L5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="15"/>
+      <c r="M5" s="16"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
-        <v>250</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="B6" s="16">
+        <v>250</v>
+      </c>
+      <c r="C6" s="17">
         <v>44287</v>
       </c>
       <c r="D6" s="18">
         <v>106777</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="18">
@@ -991,29 +939,29 @@
       <c r="K6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="15"/>
+      <c r="M6" s="16"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
-        <v>250</v>
-      </c>
-      <c r="C7" s="16">
+      <c r="B7" s="16">
+        <v>250</v>
+      </c>
+      <c r="C7" s="17">
         <v>44256</v>
       </c>
       <c r="D7" s="18">
         <v>92104</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="18">
@@ -1022,7 +970,7 @@
       <c r="G7" s="18">
         <v>37.89</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="16">
         <v>2</v>
       </c>
       <c r="I7" s="19">
@@ -1031,32 +979,32 @@
       <c r="J7" s="19">
         <v>1563</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="15"/>
+      <c r="M7" s="16"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="15">
-        <v>250</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="B8" s="16">
+        <v>250</v>
+      </c>
+      <c r="C8" s="17">
         <v>44287</v>
       </c>
       <c r="D8" s="18">
         <v>105816</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="18">
@@ -1065,7 +1013,7 @@
       <c r="G8" s="18">
         <v>40.5</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="16">
         <v>2</v>
       </c>
       <c r="I8" s="19">
@@ -1077,27 +1025,27 @@
       <c r="K8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="15"/>
+      <c r="M8" s="16"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="15">
-        <v>250</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="B9" s="16">
+        <v>250</v>
+      </c>
+      <c r="C9" s="17">
         <v>44228</v>
       </c>
       <c r="D9" s="18"/>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="18">
@@ -1121,33 +1069,33 @@
       <c r="L9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="15"/>
+      <c r="M9" s="16"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="15">
-        <v>250</v>
-      </c>
-      <c r="C10" s="16">
+      <c r="B10" s="16">
+        <v>250</v>
+      </c>
+      <c r="C10" s="17">
         <v>44317</v>
       </c>
       <c r="D10" s="18">
         <v>112311</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="18">
         <v>24953</v>
       </c>
       <c r="G10" s="18">
         <v>43.9</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="16">
         <v>1</v>
       </c>
       <c r="I10" s="19">
@@ -1156,32 +1104,32 @@
       <c r="J10" s="19">
         <v>725</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="L10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="15"/>
+      <c r="M10" s="16"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="16">
         <v>35</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="17">
         <v>44348</v>
       </c>
       <c r="D11" s="18">
         <v>90332</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="18">
@@ -1190,7 +1138,7 @@
       <c r="G11" s="18">
         <v>44.5</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="16">
         <v>3</v>
       </c>
       <c r="I11" s="19">
@@ -1202,34 +1150,34 @@
       <c r="K11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="15"/>
+      <c r="M11" s="16"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
-        <v>250</v>
-      </c>
-      <c r="C12" s="16">
+      <c r="B12" s="16">
+        <v>250</v>
+      </c>
+      <c r="C12" s="17">
         <v>44317</v>
       </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="18">
         <v>43000</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="15">
+        <v>23</v>
+      </c>
+      <c r="H12" s="16">
         <v>1</v>
       </c>
       <c r="I12" s="19">
@@ -1241,29 +1189,29 @@
       <c r="K12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="15"/>
+      <c r="M12" s="16"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
-        <v>12</v>
-      </c>
-      <c r="B13" s="15">
-        <v>250</v>
-      </c>
-      <c r="C13" s="16">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16">
+        <v>250</v>
+      </c>
+      <c r="C13" s="17">
         <v>44317</v>
       </c>
       <c r="D13" s="18">
         <v>86586</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="18">
@@ -1272,7 +1220,7 @@
       <c r="G13" s="18">
         <v>43.99</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="16">
         <v>1</v>
       </c>
       <c r="I13" s="19">
@@ -1281,32 +1229,32 @@
       <c r="J13" s="19">
         <v>0</v>
       </c>
-      <c r="K13" s="15" t="s">
-        <v>20</v>
+      <c r="K13" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="L13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="15"/>
+      <c r="M13" s="16"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="15">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16">
         <v>35</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="17">
         <v>44531</v>
       </c>
       <c r="D14" s="18">
         <v>154799</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="10">
         <v>2021</v>
       </c>
       <c r="F14" s="18">
@@ -1324,30 +1272,30 @@
       <c r="J14" s="19">
         <v>0</v>
       </c>
-      <c r="K14" s="15" t="s">
-        <v>21</v>
+      <c r="K14" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="L14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="15"/>
+      <c r="M14" s="16"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="15">
-        <v>250</v>
-      </c>
-      <c r="C15" s="16">
+      <c r="B15" s="16">
+        <v>250</v>
+      </c>
+      <c r="C15" s="17">
         <v>44228</v>
       </c>
       <c r="D15" s="18"/>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="18">
@@ -1365,26 +1313,26 @@
       <c r="J15" s="19">
         <v>0</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="16" t="s">
         <v>18</v>
       </c>
       <c r="L15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="15"/>
+      <c r="M15" s="16"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="15">
-        <v>250</v>
-      </c>
-      <c r="C16" s="16">
+      <c r="B16" s="16">
+        <v>250</v>
+      </c>
+      <c r="C16" s="17">
         <v>44228</v>
       </c>
       <c r="D16" s="18">
@@ -1397,7 +1345,7 @@
         <v>27443</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H16" s="18">
         <v>0</v>
@@ -1414,26 +1362,26 @@
       <c r="L16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="15"/>
+      <c r="M16" s="16"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="16">
         <v>35</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="17">
         <v>44531</v>
       </c>
       <c r="D17" s="18">
         <v>167635</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="10">
         <v>2021</v>
       </c>
       <c r="F17" s="18">
@@ -1451,37 +1399,37 @@
       <c r="J17" s="19">
         <v>0</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="15"/>
+      <c r="M17" s="16"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="16">
         <v>35</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="17">
         <v>44317</v>
       </c>
       <c r="D18" s="18"/>
-      <c r="E18" s="17"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="18">
         <v>51583</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="15">
+        <v>23</v>
+      </c>
+      <c r="H18" s="16">
         <v>1</v>
       </c>
       <c r="I18" s="19">
@@ -1490,32 +1438,32 @@
       <c r="J18" s="19">
         <v>0</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="15"/>
+      <c r="L18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="16"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="15">
-        <v>250</v>
-      </c>
-      <c r="C19" s="16">
+      <c r="B19" s="16">
+        <v>250</v>
+      </c>
+      <c r="C19" s="17">
         <v>44470</v>
       </c>
       <c r="D19" s="18">
         <v>142450</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="10">
         <v>2021</v>
       </c>
       <c r="F19" s="18">
@@ -1533,32 +1481,32 @@
       <c r="J19" s="19">
         <v>0</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="15"/>
+      <c r="M19" s="16"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="15">
-        <v>250</v>
-      </c>
-      <c r="C20" s="16">
+      <c r="B20" s="16">
+        <v>250</v>
+      </c>
+      <c r="C20" s="17">
         <v>44256</v>
       </c>
       <c r="D20" s="18">
         <v>85666</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="18">
@@ -1582,33 +1530,33 @@
       <c r="L20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M20" s="15"/>
+      <c r="M20" s="16"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="15">
-        <v>250</v>
-      </c>
-      <c r="C21" s="16">
+      <c r="B21" s="16">
+        <v>250</v>
+      </c>
+      <c r="C21" s="17">
         <v>44287</v>
       </c>
       <c r="D21" s="18">
         <v>101851</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="18">
         <v>64054</v>
       </c>
       <c r="G21" s="18">
         <v>43.9</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="16">
         <v>1</v>
       </c>
       <c r="I21" s="19">
@@ -1618,31 +1566,31 @@
         <v>1176</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M21" s="15"/>
+      <c r="M21" s="16"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+      <c r="A22" s="15">
         <v>21</v>
       </c>
-      <c r="B22" s="15">
-        <v>250</v>
-      </c>
-      <c r="C22" s="16">
+      <c r="B22" s="16">
+        <v>250</v>
+      </c>
+      <c r="C22" s="17">
         <v>44348</v>
       </c>
       <c r="D22" s="18">
         <v>103502</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="18">
@@ -1651,7 +1599,7 @@
       <c r="G22" s="18">
         <v>29.9</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="16">
         <v>3</v>
       </c>
       <c r="I22" s="19">
@@ -1660,32 +1608,32 @@
       <c r="J22" s="19">
         <v>15970</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="K22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="15"/>
+      <c r="M22" s="16"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="15">
-        <v>250</v>
-      </c>
-      <c r="C23" s="16">
+      <c r="B23" s="16">
+        <v>250</v>
+      </c>
+      <c r="C23" s="17">
         <v>44256</v>
       </c>
       <c r="D23" s="18">
         <v>81195</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="18">
@@ -1694,7 +1642,7 @@
       <c r="G23" s="18">
         <v>42.5</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="16">
         <v>1</v>
       </c>
       <c r="I23" s="19">
@@ -1709,26 +1657,26 @@
       <c r="L23" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="15"/>
+      <c r="M23" s="16"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+      <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="15">
-        <v>250</v>
-      </c>
-      <c r="C24" s="16">
+      <c r="B24" s="16">
+        <v>250</v>
+      </c>
+      <c r="C24" s="17">
         <v>44256</v>
       </c>
       <c r="D24" s="18">
         <v>84545</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="18">
@@ -1752,24 +1700,24 @@
       <c r="L24" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M24" s="15"/>
+      <c r="M24" s="16"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="15">
         <v>24</v>
       </c>
-      <c r="B25" s="15">
-        <v>250</v>
-      </c>
-      <c r="C25" s="16">
+      <c r="B25" s="16">
+        <v>250</v>
+      </c>
+      <c r="C25" s="17">
         <v>44348</v>
       </c>
       <c r="D25" s="18"/>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="18">
@@ -1787,32 +1735,32 @@
       <c r="J25" s="19">
         <v>0</v>
       </c>
-      <c r="K25" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="15" t="s">
+      <c r="K25" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L25" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="15"/>
+      <c r="M25" s="16"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+      <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="B26" s="15">
-        <v>250</v>
-      </c>
-      <c r="C26" s="16">
+      <c r="B26" s="16">
+        <v>250</v>
+      </c>
+      <c r="C26" s="17">
         <v>44256</v>
       </c>
       <c r="D26" s="18">
         <v>83508</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="18">
@@ -1836,26 +1784,26 @@
       <c r="L26" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="15"/>
+      <c r="M26" s="16"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+      <c r="A27" s="15">
         <v>26</v>
       </c>
-      <c r="B27" s="15">
-        <v>250</v>
-      </c>
-      <c r="C27" s="16">
+      <c r="B27" s="16">
+        <v>250</v>
+      </c>
+      <c r="C27" s="17">
         <v>44378</v>
       </c>
       <c r="D27" s="18">
         <v>137528</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="10">
         <v>2021</v>
       </c>
       <c r="F27" s="18">
@@ -1864,7 +1812,7 @@
       <c r="G27" s="18">
         <v>43.9</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="16">
         <v>1</v>
       </c>
       <c r="I27" s="19">
@@ -1873,39 +1821,39 @@
       <c r="J27" s="19">
         <v>0</v>
       </c>
-      <c r="K27" s="15" t="s">
-        <v>23</v>
+      <c r="K27" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="L27" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="15"/>
+      <c r="M27" s="16"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+      <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="15">
-        <v>250</v>
-      </c>
-      <c r="C28" s="16">
+      <c r="B28" s="16">
+        <v>250</v>
+      </c>
+      <c r="C28" s="17">
         <v>44501</v>
       </c>
       <c r="D28" s="18"/>
-      <c r="E28" s="17">
+      <c r="E28" s="10">
         <v>2021</v>
       </c>
       <c r="F28" s="18">
         <v>26227</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="15">
+        <v>23</v>
+      </c>
+      <c r="H28" s="16">
         <v>2</v>
       </c>
       <c r="I28" s="19">
@@ -1914,30 +1862,30 @@
       <c r="J28" s="19">
         <v>464</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="15"/>
+      <c r="L28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="16"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="A29" s="15">
         <v>28</v>
       </c>
-      <c r="B29" s="15">
-        <v>250</v>
-      </c>
-      <c r="C29" s="16">
+      <c r="B29" s="16">
+        <v>250</v>
+      </c>
+      <c r="C29" s="17">
         <v>44317</v>
       </c>
       <c r="D29" s="18"/>
-      <c r="E29" s="17">
+      <c r="E29" s="10">
         <v>2021</v>
       </c>
       <c r="F29" s="18">
@@ -1946,7 +1894,7 @@
       <c r="G29" s="18">
         <v>44.5</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="16">
         <v>1</v>
       </c>
       <c r="I29" s="19">
@@ -1955,32 +1903,32 @@
       <c r="J29" s="19">
         <v>0</v>
       </c>
-      <c r="K29" s="15" t="s">
-        <v>23</v>
+      <c r="K29" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="L29" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="15"/>
+      <c r="M29" s="16"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+      <c r="A30" s="15">
         <v>29</v>
       </c>
-      <c r="B30" s="15">
-        <v>250</v>
-      </c>
-      <c r="C30" s="16">
+      <c r="B30" s="16">
+        <v>250</v>
+      </c>
+      <c r="C30" s="17">
         <v>44256</v>
       </c>
       <c r="D30" s="18">
         <v>104276</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="18">
@@ -1989,7 +1937,7 @@
       <c r="G30" s="18">
         <v>44.5</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="16">
         <v>1</v>
       </c>
       <c r="I30" s="19">
@@ -1998,30 +1946,30 @@
       <c r="J30" s="19">
         <v>0</v>
       </c>
-      <c r="K30" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="15" t="s">
+      <c r="K30" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L30" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M30" s="15"/>
+      <c r="M30" s="16"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="A31" s="15">
         <v>30</v>
       </c>
-      <c r="B31" s="15">
-        <v>250</v>
-      </c>
-      <c r="C31" s="16">
+      <c r="B31" s="16">
+        <v>250</v>
+      </c>
+      <c r="C31" s="17">
         <v>44228</v>
       </c>
       <c r="D31" s="18"/>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="18">
@@ -2045,8 +1993,8 @@
       <c r="L31" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M31" s="15" t="s">
-        <v>26</v>
+      <c r="M31" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -2054,19 +2002,19 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+      <c r="A32" s="15">
         <v>31</v>
       </c>
-      <c r="B32" s="15">
-        <v>250</v>
-      </c>
-      <c r="C32" s="16">
+      <c r="B32" s="16">
+        <v>250</v>
+      </c>
+      <c r="C32" s="17">
         <v>44409</v>
       </c>
       <c r="D32" s="18">
         <v>152242</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="10">
         <v>2021</v>
       </c>
       <c r="F32" s="18">
@@ -2084,14 +2032,14 @@
       <c r="J32" s="19">
         <v>0</v>
       </c>
-      <c r="K32" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L32" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" s="15" t="s">
-        <v>27</v>
+      <c r="K32" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -2099,19 +2047,19 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="A33" s="15">
         <v>32</v>
       </c>
-      <c r="B33" s="15">
-        <v>250</v>
-      </c>
-      <c r="C33" s="16">
+      <c r="B33" s="16">
+        <v>250</v>
+      </c>
+      <c r="C33" s="17">
         <v>44348</v>
       </c>
       <c r="D33" s="18">
         <v>119055</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="10">
         <v>2021</v>
       </c>
       <c r="F33" s="18">
@@ -2129,32 +2077,32 @@
       <c r="J33" s="19">
         <v>0</v>
       </c>
-      <c r="K33" s="15" t="s">
-        <v>29</v>
+      <c r="K33" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="L33" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M33" s="15"/>
+      <c r="M33" s="16"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+      <c r="A34" s="15">
         <v>33</v>
       </c>
-      <c r="B34" s="15">
-        <v>250</v>
-      </c>
-      <c r="C34" s="16">
+      <c r="B34" s="16">
+        <v>250</v>
+      </c>
+      <c r="C34" s="17">
         <v>44409</v>
       </c>
       <c r="D34" s="18">
         <v>145704</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="10">
         <v>2021</v>
       </c>
       <c r="F34" s="22">
@@ -2163,7 +2111,7 @@
       <c r="G34" s="18">
         <v>44.5</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="16">
         <v>1</v>
       </c>
       <c r="I34" s="19">
@@ -2172,32 +2120,32 @@
       <c r="J34" s="19">
         <v>904</v>
       </c>
-      <c r="K34" s="15" t="s">
-        <v>39</v>
+      <c r="K34" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="L34" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M34" s="15"/>
+      <c r="M34" s="16"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="A35" s="15">
         <v>34</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="16">
         <v>35</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="17">
         <v>44256</v>
       </c>
       <c r="D35" s="18">
         <v>90353</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="18">
@@ -2206,7 +2154,7 @@
       <c r="G35" s="18">
         <v>43.5</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="16">
         <v>2</v>
       </c>
       <c r="I35" s="19">
@@ -2215,32 +2163,32 @@
       <c r="J35" s="19">
         <v>1407</v>
       </c>
-      <c r="K35" s="15" t="s">
+      <c r="K35" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="15" t="s">
+      <c r="L35" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M35" s="15"/>
+      <c r="M35" s="16"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+      <c r="A36" s="15">
         <v>35</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="16">
         <v>35</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="17">
         <v>44531</v>
       </c>
       <c r="D36" s="18">
         <v>167498</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="10">
         <v>2021</v>
       </c>
       <c r="F36" s="18">
@@ -2249,7 +2197,7 @@
       <c r="G36" s="18">
         <v>53.99</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="16">
         <v>1</v>
       </c>
       <c r="I36" s="19">
@@ -2258,32 +2206,32 @@
       <c r="J36" s="19">
         <v>0</v>
       </c>
-      <c r="K36" s="15" t="s">
+      <c r="K36" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L36" s="15" t="s">
+      <c r="L36" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M36" s="15"/>
+      <c r="M36" s="16"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+      <c r="A37" s="15">
         <v>36</v>
       </c>
-      <c r="B37" s="15">
-        <v>250</v>
-      </c>
-      <c r="C37" s="16">
+      <c r="B37" s="16">
+        <v>250</v>
+      </c>
+      <c r="C37" s="17">
         <v>44317</v>
       </c>
       <c r="D37" s="18">
         <v>114145</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="10">
         <v>2021</v>
       </c>
       <c r="F37" s="18">
@@ -2301,14 +2249,14 @@
       <c r="J37" s="19">
         <v>0</v>
       </c>
-      <c r="K37" s="15" t="s">
-        <v>23</v>
+      <c r="K37" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="L37" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M37" s="15" t="s">
-        <v>30</v>
+      <c r="M37" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -2316,19 +2264,19 @@
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+      <c r="A38" s="15">
         <v>37</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="16">
         <v>35</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="17">
         <v>44256</v>
       </c>
       <c r="D38" s="18">
         <v>102367</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="18">
@@ -2346,30 +2294,30 @@
       <c r="J38" s="19">
         <v>0</v>
       </c>
-      <c r="K38" s="15" t="s">
+      <c r="K38" s="16" t="s">
         <v>18</v>
       </c>
       <c r="L38" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M38" s="15"/>
+      <c r="M38" s="16"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+      <c r="A39" s="15">
         <v>38</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="16">
         <v>35</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="17">
         <v>44256</v>
       </c>
       <c r="D39" s="18"/>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="18">
@@ -2393,26 +2341,26 @@
       <c r="L39" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M39" s="15"/>
+      <c r="M39" s="16"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="A40" s="15">
         <v>39</v>
       </c>
-      <c r="B40" s="15">
-        <v>250</v>
-      </c>
-      <c r="C40" s="16">
+      <c r="B40" s="16">
+        <v>250</v>
+      </c>
+      <c r="C40" s="17">
         <v>44470</v>
       </c>
       <c r="D40" s="18">
         <v>155073</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="10">
         <v>2021</v>
       </c>
       <c r="F40" s="18">
@@ -2430,30 +2378,30 @@
       <c r="J40" s="19">
         <v>0</v>
       </c>
-      <c r="K40" s="15" t="s">
-        <v>23</v>
+      <c r="K40" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M40" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="M40" s="16"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+      <c r="A41" s="15">
         <v>40</v>
       </c>
-      <c r="B41" s="15">
-        <v>250</v>
-      </c>
-      <c r="C41" s="16">
+      <c r="B41" s="16">
+        <v>250</v>
+      </c>
+      <c r="C41" s="17">
         <v>44287</v>
       </c>
       <c r="D41" s="18"/>
-      <c r="E41" s="17"/>
+      <c r="E41" s="10"/>
       <c r="F41" s="18">
         <v>26000</v>
       </c>
@@ -2469,32 +2417,32 @@
       <c r="J41" s="19">
         <v>0</v>
       </c>
-      <c r="K41" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41" s="15" t="s">
+      <c r="K41" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M41" s="15"/>
+      <c r="M41" s="16"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
+      <c r="A42" s="15">
         <v>41</v>
       </c>
-      <c r="B42" s="15">
-        <v>250</v>
-      </c>
-      <c r="C42" s="16">
+      <c r="B42" s="16">
+        <v>250</v>
+      </c>
+      <c r="C42" s="17">
         <v>44287</v>
       </c>
       <c r="D42" s="18">
         <v>106025</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="18">
@@ -2513,13 +2461,13 @@
         <v>0</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L42" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M42" s="15" t="s">
-        <v>47</v>
+      <c r="M42" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -2527,19 +2475,19 @@
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
+      <c r="A43" s="15">
         <v>42</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="16">
         <v>35</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="17">
         <v>44228</v>
       </c>
       <c r="D43" s="18">
         <v>105318</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="18">
@@ -2548,7 +2496,7 @@
       <c r="G43" s="18">
         <v>47.4</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H43" s="16">
         <v>1</v>
       </c>
       <c r="I43" s="19">
@@ -2560,27 +2508,27 @@
       <c r="K43" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L43" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M43" s="15"/>
+      <c r="L43" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M43" s="16"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
+    <row r="44" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
         <v>43</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="16">
         <v>35</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="17">
         <v>44531</v>
       </c>
       <c r="D44" s="18"/>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="18">
@@ -2599,13 +2547,13 @@
         <v>0</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="M44" s="15" t="s">
-        <v>63</v>
+        <v>29</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M44" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -2613,19 +2561,19 @@
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="14">
+      <c r="A45" s="15">
         <v>44</v>
       </c>
-      <c r="B45" s="15">
-        <v>250</v>
-      </c>
-      <c r="C45" s="16">
+      <c r="B45" s="16">
+        <v>250</v>
+      </c>
+      <c r="C45" s="17">
         <v>44409</v>
       </c>
       <c r="D45" s="18">
         <v>146552</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="10">
         <v>2021</v>
       </c>
       <c r="F45" s="18">
@@ -2643,32 +2591,32 @@
       <c r="J45" s="19">
         <v>0</v>
       </c>
-      <c r="K45" s="15" t="s">
+      <c r="K45" s="16" t="s">
         <v>16</v>
       </c>
       <c r="L45" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M45" s="15"/>
+      <c r="M45" s="16"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
     <row r="46" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
+      <c r="A46" s="15">
         <v>45</v>
       </c>
-      <c r="B46" s="15">
-        <v>250</v>
-      </c>
-      <c r="C46" s="16">
+      <c r="B46" s="16">
+        <v>250</v>
+      </c>
+      <c r="C46" s="17">
         <v>44256</v>
       </c>
       <c r="D46" s="18">
         <v>86112</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="10">
         <v>2020</v>
       </c>
       <c r="F46" s="18">
@@ -2687,33 +2635,33 @@
         <v>0</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L46" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M46" s="15" t="s">
-        <v>30</v>
+      <c r="M46" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="14">
+    <row r="47" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
         <v>46</v>
       </c>
-      <c r="B47" s="15">
-        <v>250</v>
-      </c>
-      <c r="C47" s="16">
+      <c r="B47" s="16">
+        <v>250</v>
+      </c>
+      <c r="C47" s="17">
         <v>44228</v>
       </c>
       <c r="D47" s="18">
         <v>90810</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="18">
@@ -2734,11 +2682,11 @@
       <c r="K47" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L47" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="M47" s="15" t="s">
-        <v>33</v>
+      <c r="L47" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -2746,17 +2694,17 @@
       <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="14">
+      <c r="A48" s="15">
         <v>47</v>
       </c>
-      <c r="B48" s="15">
-        <v>250</v>
-      </c>
-      <c r="C48" s="16">
+      <c r="B48" s="16">
+        <v>250</v>
+      </c>
+      <c r="C48" s="17">
         <v>44228</v>
       </c>
       <c r="D48" s="22"/>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="22">
@@ -2774,28 +2722,28 @@
       <c r="J48" s="19">
         <v>178</v>
       </c>
-      <c r="K48" s="15" t="s">
+      <c r="K48" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" s="15"/>
+    </row>
+    <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="15">
+        <v>48</v>
+      </c>
+      <c r="B49" s="15">
         <v>35</v>
       </c>
-      <c r="L48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="M48" s="14"/>
-    </row>
-    <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="14">
-        <v>48</v>
-      </c>
-      <c r="B49" s="14">
-        <v>35</v>
-      </c>
-      <c r="C49" s="16">
+      <c r="C49" s="17">
         <v>44531</v>
       </c>
       <c r="D49" s="22">
         <v>167176</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="23">
         <v>2021</v>
       </c>
       <c r="F49" s="22">
@@ -2813,28 +2761,28 @@
       <c r="J49" s="19">
         <v>0</v>
       </c>
-      <c r="K49" s="15" t="s">
+      <c r="K49" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L49" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M49" s="14" t="s">
-        <v>36</v>
+      <c r="L49" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
+      <c r="A50" s="15">
         <v>49</v>
       </c>
-      <c r="B50" s="15">
-        <v>250</v>
-      </c>
-      <c r="C50" s="16">
+      <c r="B50" s="16">
+        <v>250</v>
+      </c>
+      <c r="C50" s="17">
         <v>44287</v>
       </c>
       <c r="D50" s="22"/>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="22">
@@ -2853,34 +2801,34 @@
         <v>0</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L50" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M50" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
+      <c r="M50" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="15">
         <v>50</v>
       </c>
-      <c r="B51" s="15">
-        <v>250</v>
-      </c>
-      <c r="C51" s="16">
+      <c r="B51" s="16">
+        <v>250</v>
+      </c>
+      <c r="C51" s="17">
         <v>44228</v>
       </c>
       <c r="D51" s="18"/>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="18">
         <v>16357</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H51" s="18">
         <v>1</v>
@@ -2892,27 +2840,27 @@
         <v>0</v>
       </c>
       <c r="K51" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L51" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M51" s="15" t="s">
-        <v>40</v>
+      <c r="M51" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="14">
+      <c r="A52" s="15">
         <v>51</v>
       </c>
-      <c r="B52" s="15">
-        <v>250</v>
-      </c>
-      <c r="C52" s="16">
+      <c r="B52" s="16">
+        <v>250</v>
+      </c>
+      <c r="C52" s="17">
         <v>44256</v>
       </c>
       <c r="D52" s="22"/>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="22">
@@ -2931,25 +2879,25 @@
         <v>0</v>
       </c>
       <c r="K52" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L52" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M52" s="15"/>
+      <c r="M52" s="16"/>
     </row>
     <row r="53" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="14">
+      <c r="A53" s="15">
         <v>52</v>
       </c>
-      <c r="B53" s="15">
-        <v>250</v>
-      </c>
-      <c r="C53" s="25">
+      <c r="B53" s="16">
+        <v>250</v>
+      </c>
+      <c r="C53" s="24">
         <v>44348</v>
       </c>
       <c r="D53" s="22"/>
-      <c r="E53" s="24">
+      <c r="E53" s="23">
         <v>2021</v>
       </c>
       <c r="F53" s="22">
@@ -2967,28 +2915,28 @@
       <c r="J53" s="19">
         <v>0</v>
       </c>
-      <c r="K53" s="15" t="s">
-        <v>23</v>
+      <c r="K53" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="L53" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M53" s="15"/>
+      <c r="M53" s="16"/>
     </row>
     <row r="54" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
+      <c r="A54" s="15">
         <v>53</v>
       </c>
-      <c r="B54" s="15">
-        <v>250</v>
-      </c>
-      <c r="C54" s="16">
+      <c r="B54" s="16">
+        <v>250</v>
+      </c>
+      <c r="C54" s="17">
         <v>44409</v>
       </c>
       <c r="D54" s="18">
         <v>148431</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="10">
         <v>2021</v>
       </c>
       <c r="F54" s="18">
@@ -3006,28 +2954,28 @@
       <c r="J54" s="19">
         <v>0</v>
       </c>
-      <c r="K54" s="15" t="s">
-        <v>23</v>
+      <c r="K54" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="L54" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M54" s="15"/>
+      <c r="M54" s="16"/>
     </row>
     <row r="55" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
+      <c r="A55" s="15">
         <v>54</v>
       </c>
-      <c r="B55" s="15">
-        <v>250</v>
-      </c>
-      <c r="C55" s="16">
+      <c r="B55" s="16">
+        <v>250</v>
+      </c>
+      <c r="C55" s="17">
         <v>44256</v>
       </c>
       <c r="D55" s="22">
         <v>80233</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="10">
         <v>2020</v>
       </c>
       <c r="F55" s="22">
@@ -3045,30 +2993,30 @@
       <c r="J55" s="19">
         <v>1722</v>
       </c>
-      <c r="K55" s="15" t="s">
+      <c r="K55" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
+        <v>55</v>
+      </c>
+      <c r="B56" s="16">
         <v>35</v>
       </c>
-      <c r="L55" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="M55" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
-        <v>55</v>
-      </c>
-      <c r="B56" s="15">
-        <v>35</v>
-      </c>
-      <c r="C56" s="16">
+      <c r="C56" s="17">
         <v>44531</v>
       </c>
       <c r="D56" s="22">
         <v>167689</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E56" s="23">
         <v>2021</v>
       </c>
       <c r="F56" s="22">
@@ -3086,28 +3034,28 @@
       <c r="J56" s="22">
         <v>240</v>
       </c>
-      <c r="K56" s="15" t="s">
-        <v>43</v>
+      <c r="K56" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="L56" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M56" s="15"/>
+      <c r="M56" s="16"/>
     </row>
     <row r="57" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="14">
+      <c r="A57" s="15">
         <v>56</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="16">
         <v>35</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="17">
         <v>44531</v>
       </c>
       <c r="D57" s="18">
         <v>166967</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="23">
         <v>2021</v>
       </c>
       <c r="F57" s="18">
@@ -3125,28 +3073,28 @@
       <c r="J57" s="19">
         <v>305</v>
       </c>
-      <c r="K57" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="L57" s="15" t="s">
+      <c r="K57" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L57" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M57" s="15"/>
+      <c r="M57" s="16"/>
     </row>
     <row r="58" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="14">
+      <c r="A58" s="15">
         <v>57</v>
       </c>
-      <c r="B58" s="15">
-        <v>250</v>
-      </c>
-      <c r="C58" s="25">
+      <c r="B58" s="16">
+        <v>250</v>
+      </c>
+      <c r="C58" s="24">
         <v>44287</v>
       </c>
       <c r="D58" s="22">
         <v>79569</v>
       </c>
-      <c r="E58" s="24">
+      <c r="E58" s="23">
         <v>2020</v>
       </c>
       <c r="F58" s="22">
@@ -3164,29 +3112,29 @@
       <c r="J58" s="19">
         <v>0</v>
       </c>
-      <c r="K58" s="15" t="s">
-        <v>35</v>
+      <c r="K58" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="L58" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M58" s="15" t="s">
-        <v>64</v>
+      <c r="M58" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="N58" s="1"/>
     </row>
     <row r="59" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="14">
+      <c r="A59" s="15">
         <v>58</v>
       </c>
-      <c r="B59" s="15">
-        <v>250</v>
-      </c>
-      <c r="C59" s="16">
+      <c r="B59" s="16">
+        <v>250</v>
+      </c>
+      <c r="C59" s="17">
         <v>44228</v>
       </c>
       <c r="D59" s="22"/>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="22">
@@ -3205,27 +3153,27 @@
         <v>0</v>
       </c>
       <c r="K59" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L59" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M59" s="14"/>
+      <c r="M59" s="15"/>
     </row>
     <row r="60" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="14">
+      <c r="A60" s="15">
         <v>59</v>
       </c>
-      <c r="B60" s="15">
-        <v>250</v>
-      </c>
-      <c r="C60" s="25">
+      <c r="B60" s="16">
+        <v>250</v>
+      </c>
+      <c r="C60" s="24">
         <v>44197</v>
       </c>
       <c r="D60" s="22">
         <v>82199</v>
       </c>
-      <c r="E60" s="24">
+      <c r="E60" s="23">
         <v>2020</v>
       </c>
       <c r="F60" s="22">
@@ -3244,21 +3192,21 @@
         <v>0</v>
       </c>
       <c r="K60" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L60" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M60" s="15"/>
+      <c r="M60" s="16"/>
     </row>
     <row r="61" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="14">
+      <c r="A61" s="15">
         <v>60</v>
       </c>
-      <c r="B61" s="15">
-        <v>250</v>
-      </c>
-      <c r="C61" s="16">
+      <c r="B61" s="16">
+        <v>250</v>
+      </c>
+      <c r="C61" s="17">
         <v>44256</v>
       </c>
       <c r="D61" s="22"/>
@@ -3281,27 +3229,27 @@
         <v>0</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L61" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M61" s="14" t="s">
-        <v>45</v>
+      <c r="M61" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="14">
+      <c r="A62" s="15">
         <v>61</v>
       </c>
-      <c r="B62" s="15">
+      <c r="B62" s="16">
         <v>35</v>
       </c>
-      <c r="C62" s="16">
+      <c r="C62" s="17">
         <v>44531</v>
       </c>
       <c r="D62" s="22"/>
-      <c r="E62" s="24">
+      <c r="E62" s="23">
         <v>2021</v>
       </c>
       <c r="F62" s="22">
@@ -3319,28 +3267,28 @@
       <c r="J62" s="19">
         <v>0</v>
       </c>
-      <c r="K62" s="15" t="s">
-        <v>43</v>
+      <c r="K62" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="L62" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M62" s="14"/>
+      <c r="M62" s="15"/>
     </row>
     <row r="63" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="14">
+      <c r="A63" s="15">
         <v>62</v>
       </c>
-      <c r="B63" s="15">
-        <v>250</v>
-      </c>
-      <c r="C63" s="25">
+      <c r="B63" s="16">
+        <v>250</v>
+      </c>
+      <c r="C63" s="24">
         <v>44348</v>
       </c>
       <c r="D63" s="22">
         <v>120136</v>
       </c>
-      <c r="E63" s="24">
+      <c r="E63" s="23">
         <v>2021</v>
       </c>
       <c r="F63" s="22">
@@ -3358,26 +3306,26 @@
       <c r="J63" s="19">
         <v>0</v>
       </c>
-      <c r="K63" s="15" t="s">
-        <v>39</v>
+      <c r="K63" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="L63" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M63" s="15"/>
-    </row>
-    <row r="64" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="14">
+      <c r="M63" s="16"/>
+    </row>
+    <row r="64" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="15">
         <v>63</v>
       </c>
-      <c r="B64" s="15">
-        <v>250</v>
-      </c>
-      <c r="C64" s="16">
+      <c r="B64" s="16">
+        <v>250</v>
+      </c>
+      <c r="C64" s="17">
         <v>44256</v>
       </c>
       <c r="D64" s="22"/>
-      <c r="E64" s="17" t="s">
+      <c r="E64" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="22">
@@ -3396,29 +3344,29 @@
         <v>333</v>
       </c>
       <c r="K64" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L64" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M64" s="15" t="s">
-        <v>46</v>
+      <c r="M64" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="14">
+      <c r="A65" s="15">
         <v>64</v>
       </c>
-      <c r="B65" s="15">
-        <v>250</v>
-      </c>
-      <c r="C65" s="16">
+      <c r="B65" s="16">
+        <v>250</v>
+      </c>
+      <c r="C65" s="17">
         <v>44256</v>
       </c>
       <c r="D65" s="18">
         <v>101595</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E65" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F65" s="18">
@@ -3436,30 +3384,30 @@
       <c r="J65" s="19">
         <v>0</v>
       </c>
-      <c r="K65" s="15" t="s">
-        <v>20</v>
+      <c r="K65" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="L65" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M65" s="15" t="s">
-        <v>47</v>
+      <c r="M65" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="14">
+      <c r="A66" s="15">
         <v>65</v>
       </c>
-      <c r="B66" s="15">
+      <c r="B66" s="16">
         <v>35</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="17">
         <v>44256</v>
       </c>
       <c r="D66" s="22">
         <v>90162</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E66" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="22">
@@ -3478,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="K66" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L66" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M66" s="15"/>
+      <c r="M66" s="16"/>
     </row>
     <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="14">
+      <c r="A67" s="15">
         <v>66</v>
       </c>
-      <c r="B67" s="15">
+      <c r="B67" s="16">
         <v>35</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="17">
         <v>44228</v>
       </c>
       <c r="D67" s="18"/>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="18">
@@ -3515,25 +3463,25 @@
         <v>0</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L67" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M67" s="15"/>
+      <c r="M67" s="16"/>
     </row>
     <row r="68" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="14">
+      <c r="A68" s="15">
         <v>67</v>
       </c>
-      <c r="B68" s="15">
-        <v>250</v>
-      </c>
-      <c r="C68" s="25">
+      <c r="B68" s="16">
+        <v>250</v>
+      </c>
+      <c r="C68" s="24">
         <v>44348</v>
       </c>
       <c r="D68" s="22"/>
-      <c r="E68" s="24">
+      <c r="E68" s="23">
         <v>2021</v>
       </c>
       <c r="F68" s="22">
@@ -3551,28 +3499,28 @@
       <c r="J68" s="19">
         <v>1609</v>
       </c>
-      <c r="K68" s="15" t="s">
-        <v>23</v>
+      <c r="K68" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="L68" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="M68" s="15" t="s">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="M68" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="14">
+      <c r="A69" s="15">
         <v>68</v>
       </c>
-      <c r="B69" s="15">
-        <v>250</v>
-      </c>
-      <c r="C69" s="25">
+      <c r="B69" s="16">
+        <v>250</v>
+      </c>
+      <c r="C69" s="24">
         <v>44197</v>
       </c>
       <c r="D69" s="22"/>
-      <c r="E69" s="17" t="s">
+      <c r="E69" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="22">
@@ -3591,27 +3539,27 @@
         <v>0</v>
       </c>
       <c r="K69" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L69" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M69" s="15"/>
+      <c r="M69" s="16"/>
     </row>
     <row r="70" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="14">
+      <c r="A70" s="15">
         <v>69</v>
       </c>
-      <c r="B70" s="15">
-        <v>250</v>
-      </c>
-      <c r="C70" s="16">
+      <c r="B70" s="16">
+        <v>250</v>
+      </c>
+      <c r="C70" s="17">
         <v>44287</v>
       </c>
       <c r="D70" s="18">
         <v>87998</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E70" s="10">
         <v>2020</v>
       </c>
       <c r="F70" s="18">
@@ -3630,25 +3578,25 @@
         <v>8296</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L70" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M70" s="15"/>
+      <c r="M70" s="16"/>
     </row>
     <row r="71" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="14">
+      <c r="A71" s="15">
         <v>70</v>
       </c>
-      <c r="B71" s="15">
-        <v>250</v>
-      </c>
-      <c r="C71" s="25">
+      <c r="B71" s="16">
+        <v>250</v>
+      </c>
+      <c r="C71" s="24">
         <v>44348</v>
       </c>
       <c r="D71" s="22"/>
-      <c r="E71" s="24">
+      <c r="E71" s="23">
         <v>2021</v>
       </c>
       <c r="F71" s="22">
@@ -3666,26 +3614,26 @@
       <c r="J71" s="19">
         <v>0</v>
       </c>
-      <c r="K71" s="15" t="s">
-        <v>43</v>
+      <c r="K71" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="L71" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M71" s="15"/>
+      <c r="M71" s="16"/>
     </row>
     <row r="72" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="14">
+      <c r="A72" s="15">
         <v>71</v>
       </c>
-      <c r="B72" s="15">
-        <v>250</v>
-      </c>
-      <c r="C72" s="16">
+      <c r="B72" s="16">
+        <v>250</v>
+      </c>
+      <c r="C72" s="17">
         <v>44256</v>
       </c>
       <c r="D72" s="22"/>
-      <c r="E72" s="17" t="s">
+      <c r="E72" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F72" s="22">
@@ -3703,28 +3651,28 @@
       <c r="J72" s="19">
         <v>0</v>
       </c>
-      <c r="K72" s="15" t="s">
-        <v>49</v>
+      <c r="K72" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="L72" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M72" s="14"/>
+      <c r="M72" s="15"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="14">
+      <c r="A73" s="15">
         <v>72</v>
       </c>
-      <c r="B73" s="15">
-        <v>250</v>
-      </c>
-      <c r="C73" s="16">
+      <c r="B73" s="16">
+        <v>250</v>
+      </c>
+      <c r="C73" s="17">
         <v>44256</v>
       </c>
       <c r="D73" s="22">
         <v>81767</v>
       </c>
-      <c r="E73" s="24">
+      <c r="E73" s="23">
         <v>2020</v>
       </c>
       <c r="F73" s="22">
@@ -3743,25 +3691,25 @@
         <v>0</v>
       </c>
       <c r="K73" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L73" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M73" s="14"/>
+      <c r="M73" s="15"/>
     </row>
     <row r="74" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="14">
+      <c r="A74" s="15">
         <v>73</v>
       </c>
-      <c r="B74" s="15">
-        <v>250</v>
-      </c>
-      <c r="C74" s="16">
+      <c r="B74" s="16">
+        <v>250</v>
+      </c>
+      <c r="C74" s="17">
         <v>44470</v>
       </c>
       <c r="D74" s="18"/>
-      <c r="E74" s="17">
+      <c r="E74" s="10">
         <v>2021</v>
       </c>
       <c r="F74" s="18">
@@ -3779,28 +3727,28 @@
       <c r="J74" s="19">
         <v>0</v>
       </c>
-      <c r="K74" s="15" t="s">
-        <v>50</v>
+      <c r="K74" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="L74" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M74" s="15" t="s">
-        <v>51</v>
+      <c r="M74" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="14">
+      <c r="A75" s="15">
         <v>74</v>
       </c>
-      <c r="B75" s="15">
-        <v>250</v>
-      </c>
-      <c r="C75" s="25">
+      <c r="B75" s="16">
+        <v>250</v>
+      </c>
+      <c r="C75" s="24">
         <v>44228</v>
       </c>
       <c r="D75" s="22"/>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F75" s="22">
@@ -3824,22 +3772,22 @@
       <c r="L75" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M75" s="14"/>
+      <c r="M75" s="15"/>
     </row>
     <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="14">
+      <c r="A76" s="15">
         <v>75</v>
       </c>
-      <c r="B76" s="15">
+      <c r="B76" s="16">
         <v>35</v>
       </c>
-      <c r="C76" s="25">
+      <c r="C76" s="24">
         <v>44256</v>
       </c>
       <c r="D76" s="22">
         <v>94577</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="E76" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F76" s="22">
@@ -3858,27 +3806,27 @@
         <v>0</v>
       </c>
       <c r="K76" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L76" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M76" s="14" t="s">
-        <v>53</v>
+      <c r="M76" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="14">
+      <c r="A77" s="15">
         <v>76</v>
       </c>
-      <c r="B77" s="15">
-        <v>250</v>
-      </c>
-      <c r="C77" s="16">
+      <c r="B77" s="16">
+        <v>250</v>
+      </c>
+      <c r="C77" s="17">
         <v>44440</v>
       </c>
       <c r="D77" s="18"/>
-      <c r="E77" s="17">
+      <c r="E77" s="10">
         <v>2021</v>
       </c>
       <c r="F77" s="18">
@@ -3891,33 +3839,33 @@
         <v>3</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K77" s="15" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="K77" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="L77" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M77" s="14" t="s">
-        <v>57</v>
+      <c r="M77" s="15" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="14">
+      <c r="A78" s="15">
         <v>77</v>
       </c>
-      <c r="B78" s="15">
-        <v>250</v>
-      </c>
-      <c r="C78" s="25">
+      <c r="B78" s="16">
+        <v>250</v>
+      </c>
+      <c r="C78" s="24">
         <v>44228</v>
       </c>
       <c r="D78" s="22"/>
-      <c r="E78" s="17" t="s">
+      <c r="E78" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="22">
@@ -3936,27 +3884,27 @@
         <v>0</v>
       </c>
       <c r="K78" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L78" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M78" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="M78" s="15"/>
     </row>
     <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="14">
+      <c r="A79" s="15">
         <v>78</v>
       </c>
-      <c r="B79" s="15">
-        <v>250</v>
-      </c>
-      <c r="C79" s="16">
+      <c r="B79" s="16">
+        <v>250</v>
+      </c>
+      <c r="C79" s="17">
         <v>44287</v>
       </c>
       <c r="D79" s="18">
         <v>106047</v>
       </c>
-      <c r="E79" s="17" t="s">
+      <c r="E79" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F79" s="18">
@@ -3975,27 +3923,27 @@
         <v>0</v>
       </c>
       <c r="K79" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L79" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M79" s="15"/>
+      <c r="M79" s="16"/>
     </row>
     <row r="80" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="14">
+      <c r="A80" s="15">
         <v>79</v>
       </c>
-      <c r="B80" s="15">
-        <v>250</v>
-      </c>
-      <c r="C80" s="16">
+      <c r="B80" s="16">
+        <v>250</v>
+      </c>
+      <c r="C80" s="17">
         <v>44287</v>
       </c>
       <c r="D80" s="22">
         <v>106033</v>
       </c>
-      <c r="E80" s="17" t="s">
+      <c r="E80" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F80" s="22">
@@ -4013,28 +3961,28 @@
       <c r="J80" s="19">
         <v>0</v>
       </c>
-      <c r="K80" s="15" t="s">
+      <c r="K80" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L80" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M80" s="15"/>
+    </row>
+    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="15">
+        <v>80</v>
+      </c>
+      <c r="B81" s="16">
         <v>35</v>
       </c>
-      <c r="L80" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="M80" s="14"/>
-    </row>
-    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="14">
-        <v>80</v>
-      </c>
-      <c r="B81" s="15">
-        <v>35</v>
-      </c>
-      <c r="C81" s="25">
+      <c r="C81" s="24">
         <v>44228</v>
       </c>
       <c r="D81" s="22">
         <v>87478</v>
       </c>
-      <c r="E81" s="17" t="s">
+      <c r="E81" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F81" s="22">
@@ -4053,31 +4001,31 @@
         <v>0</v>
       </c>
       <c r="K81" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L81" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M81" s="14"/>
+      <c r="M81" s="15"/>
     </row>
     <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="14">
+      <c r="A82" s="15">
         <v>81</v>
       </c>
-      <c r="B82" s="15">
-        <v>250</v>
-      </c>
-      <c r="C82" s="16">
+      <c r="B82" s="16">
+        <v>250</v>
+      </c>
+      <c r="C82" s="17">
         <v>44287</v>
       </c>
-      <c r="D82" s="26"/>
-      <c r="E82" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="26">
+      <c r="D82" s="25"/>
+      <c r="E82" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="25">
         <v>38562</v>
       </c>
-      <c r="G82" s="26">
+      <c r="G82" s="25">
         <v>45.5</v>
       </c>
       <c r="H82" s="18">
@@ -4090,27 +4038,27 @@
         <v>1050</v>
       </c>
       <c r="K82" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L82" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M82" s="27"/>
+      <c r="M82" s="26"/>
     </row>
     <row r="83" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="14">
+      <c r="A83" s="15">
         <v>82</v>
       </c>
-      <c r="B83" s="15">
-        <v>250</v>
-      </c>
-      <c r="C83" s="25">
+      <c r="B83" s="16">
+        <v>250</v>
+      </c>
+      <c r="C83" s="24">
         <v>44256</v>
       </c>
       <c r="D83" s="22">
         <v>79879</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E83" s="10">
         <v>2020</v>
       </c>
       <c r="F83" s="22">
@@ -4128,28 +4076,28 @@
       <c r="J83" s="19">
         <v>0</v>
       </c>
-      <c r="K83" s="15" t="s">
-        <v>35</v>
+      <c r="K83" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="L83" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M83" s="14"/>
+      <c r="M83" s="15"/>
     </row>
     <row r="84" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="14">
+      <c r="A84" s="15">
         <v>83</v>
       </c>
-      <c r="B84" s="15">
-        <v>250</v>
-      </c>
-      <c r="C84" s="25">
+      <c r="B84" s="16">
+        <v>250</v>
+      </c>
+      <c r="C84" s="24">
         <v>44256</v>
       </c>
       <c r="D84" s="22">
         <v>79860</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E84" s="10">
         <v>2020</v>
       </c>
       <c r="F84" s="22">
@@ -4167,28 +4115,28 @@
       <c r="J84" s="19">
         <v>0</v>
       </c>
-      <c r="K84" s="15" t="s">
-        <v>35</v>
+      <c r="K84" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="L84" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M84" s="14"/>
+      <c r="M84" s="15"/>
     </row>
     <row r="85" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="14">
+      <c r="A85" s="15">
         <v>84</v>
       </c>
-      <c r="B85" s="15">
-        <v>250</v>
-      </c>
-      <c r="C85" s="25">
+      <c r="B85" s="16">
+        <v>250</v>
+      </c>
+      <c r="C85" s="24">
         <v>44317</v>
       </c>
       <c r="D85" s="22">
         <v>113549</v>
       </c>
-      <c r="E85" s="17"/>
+      <c r="E85" s="10"/>
       <c r="F85" s="22">
         <v>41320</v>
       </c>
@@ -4204,28 +4152,28 @@
       <c r="J85" s="19">
         <v>0</v>
       </c>
-      <c r="K85" s="15" t="s">
-        <v>50</v>
+      <c r="K85" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="L85" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M85" s="14"/>
+      <c r="M85" s="15"/>
     </row>
     <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="14">
+      <c r="A86" s="15">
         <v>85</v>
       </c>
-      <c r="B86" s="15">
-        <v>250</v>
-      </c>
-      <c r="C86" s="25">
+      <c r="B86" s="16">
+        <v>250</v>
+      </c>
+      <c r="C86" s="24">
         <v>44228</v>
       </c>
       <c r="D86" s="22">
         <v>104375</v>
       </c>
-      <c r="E86" s="17" t="s">
+      <c r="E86" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="22">
@@ -4244,29 +4192,29 @@
         <v>0</v>
       </c>
       <c r="K86" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L86" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M86" s="14" t="s">
-        <v>54</v>
+      <c r="M86" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="14">
+      <c r="A87" s="15">
         <v>86</v>
       </c>
-      <c r="B87" s="15">
-        <v>250</v>
-      </c>
-      <c r="C87" s="16">
+      <c r="B87" s="16">
+        <v>250</v>
+      </c>
+      <c r="C87" s="17">
         <v>44287</v>
       </c>
       <c r="D87" s="18">
         <v>85910</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E87" s="10">
         <v>2020</v>
       </c>
       <c r="F87" s="18">
@@ -4285,27 +4233,27 @@
         <v>0</v>
       </c>
       <c r="K87" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L87" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M87" s="15"/>
+      <c r="M87" s="16"/>
     </row>
     <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="14">
+      <c r="A88" s="15">
         <v>87</v>
       </c>
-      <c r="B88" s="15">
-        <v>250</v>
-      </c>
-      <c r="C88" s="16">
+      <c r="B88" s="16">
+        <v>250</v>
+      </c>
+      <c r="C88" s="17">
         <v>44287</v>
       </c>
       <c r="D88" s="22">
         <v>93962</v>
       </c>
-      <c r="E88" s="17" t="s">
+      <c r="E88" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F88" s="22">
@@ -4324,29 +4272,29 @@
         <v>0</v>
       </c>
       <c r="K88" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L88" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M88" s="28" t="s">
-        <v>55</v>
+      <c r="M88" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="14">
+      <c r="A89" s="15">
         <v>88</v>
       </c>
-      <c r="B89" s="15">
-        <v>250</v>
-      </c>
-      <c r="C89" s="25">
+      <c r="B89" s="16">
+        <v>250</v>
+      </c>
+      <c r="C89" s="24">
         <v>44256</v>
       </c>
       <c r="D89" s="18">
         <v>79163</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E89" s="10">
         <v>2020</v>
       </c>
       <c r="F89" s="18">
@@ -4365,27 +4313,27 @@
         <v>0</v>
       </c>
       <c r="K89" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L89" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M89" s="15"/>
+      <c r="M89" s="16"/>
     </row>
     <row r="90" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="14">
+      <c r="A90" s="15">
         <v>89</v>
       </c>
-      <c r="B90" s="15">
+      <c r="B90" s="16">
         <v>35</v>
       </c>
-      <c r="C90" s="25">
+      <c r="C90" s="24">
         <v>44470</v>
       </c>
       <c r="D90" s="22">
         <v>155877</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E90" s="10">
         <v>2021</v>
       </c>
       <c r="F90" s="22">
@@ -4403,30 +4351,30 @@
       <c r="J90" s="19">
         <v>0</v>
       </c>
-      <c r="K90" s="15" t="s">
-        <v>58</v>
+      <c r="K90" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="L90" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M90" s="14" t="s">
-        <v>57</v>
+      <c r="M90" s="15" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A91" s="14">
+      <c r="A91" s="15">
         <v>90</v>
       </c>
-      <c r="B91" s="15">
-        <v>250</v>
-      </c>
-      <c r="C91" s="25">
+      <c r="B91" s="16">
+        <v>250</v>
+      </c>
+      <c r="C91" s="24">
         <v>44256</v>
       </c>
       <c r="D91" s="22">
         <v>80107</v>
       </c>
-      <c r="E91" s="17">
+      <c r="E91" s="10">
         <v>2020</v>
       </c>
       <c r="F91" s="22">
@@ -4445,27 +4393,27 @@
         <v>1987</v>
       </c>
       <c r="K91" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L91" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M91" s="14"/>
+      <c r="M91" s="15"/>
     </row>
     <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="14">
+      <c r="A92" s="15">
         <v>91</v>
       </c>
-      <c r="B92" s="15">
-        <v>250</v>
-      </c>
-      <c r="C92" s="25">
+      <c r="B92" s="16">
+        <v>250</v>
+      </c>
+      <c r="C92" s="24">
         <v>44256</v>
       </c>
       <c r="D92" s="22">
         <v>86046</v>
       </c>
-      <c r="E92" s="17" t="s">
+      <c r="E92" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F92" s="22">
@@ -4484,25 +4432,25 @@
         <v>0</v>
       </c>
       <c r="K92" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L92" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M92" s="14"/>
+      <c r="M92" s="15"/>
     </row>
     <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="14">
+      <c r="A93" s="15">
         <v>92</v>
       </c>
-      <c r="B93" s="15">
-        <v>250</v>
-      </c>
-      <c r="C93" s="25">
+      <c r="B93" s="16">
+        <v>250</v>
+      </c>
+      <c r="C93" s="24">
         <v>44256</v>
       </c>
       <c r="D93" s="22"/>
-      <c r="E93" s="17" t="s">
+      <c r="E93" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F93" s="22">
@@ -4521,27 +4469,27 @@
         <v>0</v>
       </c>
       <c r="K93" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L93" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M93" s="14" t="s">
-        <v>57</v>
+      <c r="M93" s="15" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="14">
+      <c r="A94" s="15">
         <v>93</v>
       </c>
-      <c r="B94" s="15">
+      <c r="B94" s="16">
         <v>35</v>
       </c>
-      <c r="C94" s="16">
+      <c r="C94" s="17">
         <v>44228</v>
       </c>
       <c r="D94" s="22"/>
-      <c r="E94" s="17" t="s">
+      <c r="E94" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="22">
@@ -4560,27 +4508,27 @@
         <v>0</v>
       </c>
       <c r="K94" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L94" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="M94" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="M94" s="15"/>
     </row>
     <row r="95" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="14">
+      <c r="A95" s="15">
         <v>94</v>
       </c>
-      <c r="B95" s="15">
-        <v>250</v>
-      </c>
-      <c r="C95" s="25">
+      <c r="B95" s="16">
+        <v>250</v>
+      </c>
+      <c r="C95" s="24">
         <v>44409</v>
       </c>
       <c r="D95" s="22">
         <v>150342</v>
       </c>
-      <c r="E95" s="17">
+      <c r="E95" s="10">
         <v>2021</v>
       </c>
       <c r="F95" s="22">
@@ -4598,26 +4546,26 @@
       <c r="J95" s="19">
         <v>0</v>
       </c>
-      <c r="K95" s="15" t="s">
-        <v>43</v>
+      <c r="K95" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="L95" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M95" s="14"/>
+      <c r="M95" s="15"/>
     </row>
     <row r="96" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="14">
+      <c r="A96" s="15">
         <v>95</v>
       </c>
-      <c r="B96" s="15">
-        <v>250</v>
-      </c>
-      <c r="C96" s="25">
+      <c r="B96" s="16">
+        <v>250</v>
+      </c>
+      <c r="C96" s="24">
         <v>44409</v>
       </c>
       <c r="D96" s="22"/>
-      <c r="E96" s="24">
+      <c r="E96" s="23">
         <v>2021</v>
       </c>
       <c r="F96" s="22">
@@ -4635,26 +4583,26 @@
       <c r="J96" s="19">
         <v>0</v>
       </c>
-      <c r="K96" s="15" t="s">
-        <v>50</v>
+      <c r="K96" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="L96" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M96" s="14"/>
+      <c r="M96" s="15"/>
     </row>
     <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="14">
+      <c r="A97" s="15">
         <v>96</v>
       </c>
-      <c r="B97" s="15">
-        <v>250</v>
-      </c>
-      <c r="C97" s="25">
+      <c r="B97" s="16">
+        <v>250</v>
+      </c>
+      <c r="C97" s="24">
         <v>44317</v>
       </c>
       <c r="D97" s="22"/>
-      <c r="E97" s="24">
+      <c r="E97" s="23">
         <v>2021</v>
       </c>
       <c r="F97" s="22">
@@ -4672,26 +4620,26 @@
       <c r="J97" s="19">
         <v>0</v>
       </c>
-      <c r="K97" s="15" t="s">
-        <v>58</v>
+      <c r="K97" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="L97" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M97" s="14"/>
+      <c r="M97" s="15"/>
     </row>
     <row r="98" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="14">
+      <c r="A98" s="15">
         <v>97</v>
       </c>
-      <c r="B98" s="15">
-        <v>250</v>
-      </c>
-      <c r="C98" s="25">
+      <c r="B98" s="16">
+        <v>250</v>
+      </c>
+      <c r="C98" s="24">
         <v>44228</v>
       </c>
       <c r="D98" s="22"/>
-      <c r="E98" s="17" t="s">
+      <c r="E98" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F98" s="22">
@@ -4710,27 +4658,27 @@
         <v>0</v>
       </c>
       <c r="K98" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L98" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M98" s="14" t="s">
-        <v>30</v>
+      <c r="M98" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="14">
+      <c r="A99" s="15">
         <v>98</v>
       </c>
-      <c r="B99" s="15">
-        <v>250</v>
-      </c>
-      <c r="C99" s="25">
+      <c r="B99" s="16">
+        <v>250</v>
+      </c>
+      <c r="C99" s="24">
         <v>44317</v>
       </c>
       <c r="D99" s="22"/>
-      <c r="E99" s="17">
+      <c r="E99" s="10">
         <v>2021</v>
       </c>
       <c r="F99" s="22">
@@ -4748,30 +4696,30 @@
       <c r="J99" s="19">
         <v>0</v>
       </c>
-      <c r="K99" s="15" t="s">
-        <v>43</v>
+      <c r="K99" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="L99" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M99" s="15" t="s">
-        <v>47</v>
+      <c r="M99" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="14">
+      <c r="A100" s="15">
         <v>99</v>
       </c>
-      <c r="B100" s="15">
-        <v>250</v>
-      </c>
-      <c r="C100" s="25">
+      <c r="B100" s="16">
+        <v>250</v>
+      </c>
+      <c r="C100" s="24">
         <v>44256</v>
       </c>
       <c r="D100" s="22">
         <v>84361</v>
       </c>
-      <c r="E100" s="17">
+      <c r="E100" s="10">
         <v>2020</v>
       </c>
       <c r="F100" s="22">
@@ -4790,27 +4738,27 @@
         <v>0</v>
       </c>
       <c r="K100" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L100" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M100" s="14"/>
+      <c r="M100" s="15"/>
     </row>
     <row r="101" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="14">
+      <c r="A101" s="15">
         <v>100</v>
       </c>
-      <c r="B101" s="15">
-        <v>250</v>
-      </c>
-      <c r="C101" s="25">
+      <c r="B101" s="16">
+        <v>250</v>
+      </c>
+      <c r="C101" s="24">
         <v>44348</v>
       </c>
       <c r="D101" s="22">
         <v>120257</v>
       </c>
-      <c r="E101" s="17">
+      <c r="E101" s="10">
         <v>2021</v>
       </c>
       <c r="F101" s="22">
@@ -4828,30 +4776,30 @@
       <c r="J101" s="19">
         <v>0</v>
       </c>
-      <c r="K101" s="15" t="s">
-        <v>43</v>
+      <c r="K101" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="L101" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M101" s="14" t="s">
-        <v>62</v>
+      <c r="M101" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="14">
+      <c r="A102" s="15">
         <v>101</v>
       </c>
-      <c r="B102" s="15">
-        <v>250</v>
-      </c>
-      <c r="C102" s="25">
+      <c r="B102" s="16">
+        <v>250</v>
+      </c>
+      <c r="C102" s="24">
         <v>44287</v>
       </c>
       <c r="D102" s="22">
         <v>101147</v>
       </c>
-      <c r="E102" s="17" t="s">
+      <c r="E102" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F102" s="22">
@@ -4870,25 +4818,25 @@
         <v>0</v>
       </c>
       <c r="K102" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L102" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M102" s="14"/>
+      <c r="M102" s="15"/>
     </row>
     <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="14">
+      <c r="A103" s="15">
         <v>102</v>
       </c>
-      <c r="B103" s="15">
-        <v>250</v>
-      </c>
-      <c r="C103" s="25">
+      <c r="B103" s="16">
+        <v>250</v>
+      </c>
+      <c r="C103" s="24">
         <v>44228</v>
       </c>
       <c r="D103" s="22"/>
-      <c r="E103" s="17" t="s">
+      <c r="E103" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F103" s="22">
@@ -4907,27 +4855,27 @@
         <v>0</v>
       </c>
       <c r="K103" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L103" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M103" s="14"/>
+      <c r="M103" s="15"/>
     </row>
     <row r="104" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="14">
+      <c r="A104" s="15">
         <v>103</v>
       </c>
-      <c r="B104" s="15">
+      <c r="B104" s="16">
         <v>35</v>
       </c>
-      <c r="C104" s="25">
+      <c r="C104" s="24">
         <v>44256</v>
       </c>
       <c r="D104" s="22">
         <v>90477</v>
       </c>
-      <c r="E104" s="17" t="s">
+      <c r="E104" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F104" s="22">
@@ -4946,29 +4894,29 @@
         <v>0</v>
       </c>
       <c r="K104" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L104" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M104" s="14" t="s">
-        <v>57</v>
+      <c r="M104" s="15" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="14">
+      <c r="A105" s="15">
         <v>104</v>
       </c>
-      <c r="B105" s="15">
+      <c r="B105" s="16">
         <v>35</v>
       </c>
-      <c r="C105" s="25">
+      <c r="C105" s="24">
         <v>44228</v>
       </c>
       <c r="D105" s="22">
         <v>88387</v>
       </c>
-      <c r="E105" s="17" t="s">
+      <c r="E105" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F105" s="22">
@@ -4987,25 +4935,25 @@
         <v>1369</v>
       </c>
       <c r="K105" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L105" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M105" s="14"/>
+      <c r="M105" s="15"/>
     </row>
     <row r="106" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="14">
+      <c r="A106" s="15">
         <v>105</v>
       </c>
-      <c r="B106" s="15">
-        <v>250</v>
-      </c>
-      <c r="C106" s="25">
+      <c r="B106" s="16">
+        <v>250</v>
+      </c>
+      <c r="C106" s="24">
         <v>44348</v>
       </c>
       <c r="D106" s="22"/>
-      <c r="E106" s="17">
+      <c r="E106" s="10">
         <v>2021</v>
       </c>
       <c r="F106" s="22">
@@ -5023,26 +4971,26 @@
       <c r="J106" s="19">
         <v>0</v>
       </c>
-      <c r="K106" s="15" t="s">
-        <v>43</v>
+      <c r="K106" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="L106" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M106" s="14"/>
+      <c r="M106" s="15"/>
     </row>
     <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="14">
+      <c r="A107" s="15">
         <v>106</v>
       </c>
-      <c r="B107" s="15">
-        <v>250</v>
-      </c>
-      <c r="C107" s="25">
+      <c r="B107" s="16">
+        <v>250</v>
+      </c>
+      <c r="C107" s="24">
         <v>44197</v>
       </c>
       <c r="D107" s="22"/>
-      <c r="E107" s="17" t="s">
+      <c r="E107" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F107" s="22">
@@ -5061,29 +5009,29 @@
         <v>611</v>
       </c>
       <c r="K107" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L107" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M107" s="14" t="s">
-        <v>61</v>
+      <c r="M107" s="15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="14">
+      <c r="A108" s="15">
         <v>107</v>
       </c>
-      <c r="B108" s="15">
-        <v>250</v>
-      </c>
-      <c r="C108" s="25">
+      <c r="B108" s="16">
+        <v>250</v>
+      </c>
+      <c r="C108" s="24">
         <v>44317</v>
       </c>
       <c r="D108" s="22">
         <v>113637</v>
       </c>
-      <c r="E108" s="17">
+      <c r="E108" s="10">
         <v>2021</v>
       </c>
       <c r="F108" s="22">
@@ -5101,28 +5049,28 @@
       <c r="J108" s="19">
         <v>805</v>
       </c>
-      <c r="K108" s="15" t="s">
-        <v>43</v>
+      <c r="K108" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="L108" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M108" s="14"/>
+      <c r="M108" s="15"/>
     </row>
     <row r="109" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="14">
+      <c r="A109" s="15">
         <v>108</v>
       </c>
-      <c r="B109" s="15">
-        <v>250</v>
-      </c>
-      <c r="C109" s="25">
+      <c r="B109" s="16">
+        <v>250</v>
+      </c>
+      <c r="C109" s="24">
         <v>44287</v>
       </c>
       <c r="D109" s="22">
         <v>87836</v>
       </c>
-      <c r="E109" s="17" t="s">
+      <c r="E109" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F109" s="22">
@@ -5141,12 +5089,12 @@
         <v>536</v>
       </c>
       <c r="K109" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L109" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="M109" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="M109" s="15"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
@@ -5169,13 +5117,13 @@
     </row>
     <row r="112" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E112" s="6">
         <v>44197</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="9:9" x14ac:dyDescent="0.25">
